--- a/progress_summary.xlsx
+++ b/progress_summary.xlsx
@@ -2185,28 +2185,28 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08222183618280578</v>
+        <v>0.1543420543285125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16568418274201</v>
+        <v>0.3105134944900249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1572516209013231</v>
+        <v>0.2950184255745406</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6474827854138199</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3716403563902547</v>
+        <v>0.6963596929030033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5903734106930579</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3080251206938877</v>
+        <v>0.5775407086163161</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -2215,40 +2215,40 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2497123655802324</v>
+        <v>0.4687091133383453</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5432735203727571</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2315558070862352</v>
+        <v>0.4344486665665678</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08059278502686426</v>
+        <v>0.1513093979292244</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1112843559876487</v>
+        <v>0.2089314682179031</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4247273292210567</v>
+        <v>0.7970566738578547</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1228830385177483</v>
+        <v>0.2308035549806163</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2617178827493438</v>
+        <v>0.4912434211385511</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1039336804134505</v>
+        <v>0.1951741615955879</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2256,28 +2256,28 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1015667225484139</v>
+        <v>0.1920487520268232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2568452238734649</v>
+        <v>0.4856709687789155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1047147796292308</v>
+        <v>0.1980850888458154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9264121515177641</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3231236286032041</v>
+        <v>0.6109974068133315</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6240566585394173</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2946416335480336</v>
+        <v>0.5571405434362815</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1941309255079007</v>
+        <v>0.3670018469115535</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -2295,31 +2295,31 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2432016650830279</v>
+        <v>0.4598722394297256</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09406393639653085</v>
+        <v>0.1779329669008044</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1171938570969266</v>
+        <v>0.2216859244322895</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3035779842421846</v>
+        <v>0.5740383702034035</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1025776820829824</v>
+        <v>0.1939990102534272</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2895232965257205</v>
+        <v>0.5473398134319223</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1279068509160165</v>
+        <v>0.2418543247016048</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2327,16 +2327,16 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4270237211131012</v>
+        <v>0.8094520408311855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05168517452500069</v>
+        <v>0.09795298520971586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228480899191694</v>
+        <v>0.4331880928811392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3500171357899599</v>
+        <v>0.6630805680141855</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -2398,28 +2398,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0766719921216798</v>
+        <v>0.1461963147145366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1507650121106321</v>
+        <v>0.2874161296449023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1410259531577154</v>
+        <v>0.2689049033451819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6177770676891942</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3194751617368861</v>
+        <v>0.6091675720990772</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5025681514515262</v>
+        <v>0.9582848912873726</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2721259413420025</v>
+        <v>0.5188832148679184</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -2428,40 +2428,40 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2215033163357979</v>
+        <v>0.4223572082743008</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5179101276230651</v>
+        <v>0.9873360025739106</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2016469429209478</v>
+        <v>0.3844955519312677</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07627729863650208</v>
+        <v>0.1455333938980798</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1010498882512256</v>
+        <v>0.1927982958639416</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3709137033074739</v>
+        <v>0.7073945714633476</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1120624527826743</v>
+        <v>0.2138097359704008</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2340069959604492</v>
+        <v>0.4462905445411502</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09178249215247795</v>
+        <v>0.1751165526591141</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2469,19 +2469,19 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1895132095169139</v>
+        <v>0.3656401017023355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.551802849879255</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1976895799140358</v>
+        <v>0.3814090961808131</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6241958383246817</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -2490,49 +2490,49 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5858805646941242</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9790276702533903</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3593768459772465</v>
+        <v>0.693369010252857</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8510203927321118</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5019287800744756</v>
+        <v>0.9684036836354717</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2003695288507154</v>
+        <v>0.3867390505676691</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2263459880249171</v>
+        <v>0.4368769693209015</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6792682853228562</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1738131794655903</v>
+        <v>0.3355538495827246</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5445642760028836</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2137671365863502</v>
+        <v>0.4126866893314399</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2540,70 +2540,70 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09127336944607657</v>
+        <v>0.1759864654632164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2305389529560629</v>
+        <v>0.4444124394333742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09395421409816539</v>
+        <v>0.1811554690580251</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8587391364326116</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2904940993386073</v>
+        <v>0.5599792504214758</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5346189646530944</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2618511002422122</v>
+        <v>0.5048816526545156</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8954985208283359</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1684365031980377</v>
+        <v>0.3246914378612174</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9148906623971769</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2126439618607866</v>
+        <v>0.4099092086227126</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08471953256310072</v>
+        <v>0.1633471291089351</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1038264137364339</v>
+        <v>0.2001869710139282</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2664490665956135</v>
+        <v>0.5136281560535088</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9171982868046287</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09158400654463646</v>
+        <v>0.1765415686675529</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2590859355662532</v>
+        <v>0.4994344061495897</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1161762599857621</v>
+        <v>0.2239986218662505</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2611,70 +2611,70 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08301416760209887</v>
+        <v>0.1601360447814072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1541559787034831</v>
+        <v>0.2973700685322357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118567815785971</v>
+        <v>0.2286703048050046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5009763076673894</v>
+        <v>0.9661846616216607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3153497592749929</v>
+        <v>0.6081846502407249</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4779942279942281</v>
+        <v>0.922060743489315</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3209777565010252</v>
+        <v>0.6191727252539994</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6990591279661336</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2165057948855612</v>
+        <v>0.4176441523982928</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1491499258270585</v>
+        <v>0.287713289084182</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5320038812861779</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1027349189756244</v>
+        <v>0.1982206773763395</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09618568635944311</v>
+        <v>0.1855843377712761</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3742346346925257</v>
+        <v>0.7219063438318534</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9572546658639375</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0937732852764563</v>
+        <v>0.1809297589626188</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2127081911295426</v>
+        <v>0.4104073098962367</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09980989019566325</v>
+        <v>0.1925770151056101</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2682,28 +2682,28 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07665510515410712</v>
+        <v>0.147686996023732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1241167434715822</v>
+        <v>0.2391286133221617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1141204252963176</v>
+        <v>0.219817920912799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4817323285319087</v>
+        <v>0.9283428581339485</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2779459518960867</v>
+        <v>0.5355025292831447</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4385964912280702</v>
+        <v>0.8450187123975555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2611101057366665</v>
+        <v>0.5030658697833797</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -2712,40 +2712,40 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1877009422215614</v>
+        <v>0.3616326434070679</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5084063223598108</v>
+        <v>0.9795173114412012</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1581213307240705</v>
+        <v>0.3046433019035759</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08209913673977011</v>
+        <v>0.1581387512359209</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0817866744404496</v>
+        <v>0.157536888661172</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2953389087081116</v>
+        <v>0.5690125419349351</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8752166377816291</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09377292098006627</v>
+        <v>0.1806247082784355</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2022264936729137</v>
+        <v>0.3896181905552401</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1737169496208466</v>
+        <v>0.2504167039028739</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2753,67 +2753,67 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08280528343193413</v>
+        <v>0.1588250821341916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1549198558171639</v>
+        <v>0.2970807856151825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1495233019482442</v>
+        <v>0.2867321285335142</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5795271976130367</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09823634576716792</v>
+        <v>0.1884227073246895</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8420175072947063</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1360445045003106</v>
+        <v>0.2608795788684479</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2186299061299062</v>
+        <v>0.4193441693441693</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8965767802357502</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1473832016329607</v>
+        <v>0.2826890765224732</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4418528775146422</v>
+        <v>0.8474980901451491</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1726338436952504</v>
+        <v>0.3311211950210565</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07278445114294539</v>
+        <v>0.1395691029349182</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1086937363031204</v>
+        <v>0.2084275835326052</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1622280981111127</v>
+        <v>0.3111624034008735</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1159821283034009</v>
+        <v>0.222403567652062</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2363776849248296</v>
+        <v>0.4533853839620773</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -2827,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4805623296514129</v>
+        <v>0.9204800841581792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1477484894370856</v>
+        <v>0.2830008379765073</v>
       </c>
       <c r="E11" t="n">
-        <v>0.728683294663573</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -2895,70 +2895,70 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09013625974354487</v>
+        <v>0.1732505147416929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2622216806558051</v>
+        <v>0.5040151574883105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0935007002968168</v>
+        <v>0.1797172913677768</v>
       </c>
       <c r="E12" t="n">
-        <v>0.826480510874149</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2897590313731807</v>
+        <v>0.5569445801200222</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5455042497142006</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2760804872097382</v>
+        <v>0.5306531095844579</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4681308463037925</v>
+        <v>0.8997922736016857</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1675866755231835</v>
+        <v>0.3221176237049253</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4389280158054079</v>
+        <v>0.8436616394911234</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2299440591673825</v>
+        <v>0.4419744809235476</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.09570388154703535</v>
+        <v>0.1839922389997243</v>
       </c>
       <c r="R12" t="n">
-        <v>0.106099615642778</v>
+        <v>0.2039782036377563</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3143438162341754</v>
+        <v>0.6041988886979434</v>
       </c>
       <c r="T12" t="n">
-        <v>0.899826183917093</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08265490259605714</v>
+        <v>0.1589053688013532</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2534622902639982</v>
+        <v>0.4872852964145599</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09552969780569066</v>
+        <v>0.1836573679783059</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2966,67 +2966,67 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08638409679442718</v>
+        <v>0.1658558858892546</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1635690512695861</v>
+        <v>0.3139747952582178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1580430698077757</v>
+        <v>0.3034398034398035</v>
       </c>
       <c r="E13" t="n">
-        <v>0.604714951694695</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1097395067244314</v>
+        <v>0.2108444319499596</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7374014606415765</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1572508013604424</v>
+        <v>0.3020567771786358</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2362158799284548</v>
+        <v>0.4535301690990314</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8792596047151152</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9838587778017708</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1261712396526309</v>
+        <v>0.2422995718489224</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4526619503168842</v>
+        <v>0.8691026654689512</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2008279329054639</v>
+        <v>0.3856704768239421</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07632964069200886</v>
+        <v>0.1465836375228972</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1164422162160435</v>
+        <v>0.2235093958108501</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2174544499576232</v>
+        <v>0.4176000827639993</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1215725008119664</v>
+        <v>0.2333569137269035</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2532073705816125</v>
+        <v>0.4862600831205897</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>

--- a/progress_summary.xlsx
+++ b/progress_summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="3675" yWindow="2670"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="3030" yWindow="3180"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -656,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2053,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="3">
-        <f>COUNTIF(B2:W13, "&lt;.1")/COUNT(B2:W13)</f>
+        <f>COUNTIF(B2:W13, "&lt;.2")/COUNT(B2:W13)</f>
         <v/>
       </c>
     </row>
@@ -2185,19 +2185,19 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1543420543285125</v>
+        <v>0.2523147546544727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3105134944900249</v>
+        <v>0.5073081406858324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2950184255745406</v>
+        <v>0.482281894290295</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6963596929030033</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5775407086163161</v>
+        <v>0.9439693969396941</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4687091133383453</v>
+        <v>0.7663120906141879</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -2224,31 +2224,31 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4344486665665678</v>
+        <v>0.7099132604151027</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1513093979292244</v>
+        <v>0.246884175044416</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2089314682179031</v>
+        <v>0.3413202000746713</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7970566738578547</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2308035549806163</v>
+        <v>0.3765909193251923</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4912434211385511</v>
+        <v>0.8027190450692823</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1951741615955879</v>
+        <v>0.3188182086408932</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2256,19 +2256,19 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1920487520268232</v>
+        <v>0.3088676685281505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4856709687789155</v>
+        <v>0.7808529216279969</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1980850888458154</v>
+        <v>0.3185314583050829</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6109974068133315</v>
+        <v>0.9839053008670371</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5571405434362815</v>
+        <v>0.8972554100688952</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3670018469115535</v>
+        <v>0.5903550174430536</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -2295,31 +2295,31 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4598722394297256</v>
+        <v>0.7393741953264149</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1779329669008044</v>
+        <v>0.2866520805174552</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2216859244322895</v>
+        <v>0.3570393715789516</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5740383702034035</v>
+        <v>0.9231851427779248</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1939990102534272</v>
+        <v>0.3123779095510544</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5473398134319223</v>
+        <v>0.8805670494331954</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2418543247016048</v>
+        <v>0.3895640129421821</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2327,16 +2327,16 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8094520408311855</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09795298520971586</v>
+        <v>0.1597461678757371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4331880928811392</v>
+        <v>0.7068780058148146</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6630805680141855</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -2398,28 +2398,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1461963147145366</v>
+        <v>0.2391160185892353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2874161296449023</v>
+        <v>0.4701813082604658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2689049033451819</v>
+        <v>0.4397550762039247</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6091675720990772</v>
+        <v>0.9960675737536746</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9582848912873726</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5188832148679184</v>
+        <v>0.8485584489408581</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -2428,40 +2428,40 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4223572082743008</v>
+        <v>0.6907997254391349</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9873360025739106</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3844955519312677</v>
+        <v>0.6286128047984488</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1455333938980798</v>
+        <v>0.2380946102210262</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1927982958639416</v>
+        <v>0.3154206321687997</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7073945714633476</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2138097359704008</v>
+        <v>0.3496987776766169</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4462905445411502</v>
+        <v>0.7296047140891206</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1751165526591141</v>
+        <v>0.2864137319935364</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2469,13 +2469,13 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3656401017023355</v>
+        <v>0.6018791358669114</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3814090961808131</v>
+        <v>0.6278621058069778</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.693369010252857</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2508,16 +2508,16 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9684036836354717</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3867390505676691</v>
+        <v>0.6372232546360532</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4368769693209015</v>
+        <v>0.7195324399029743</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -2526,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3355538495827246</v>
+        <v>0.5529364057353706</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4126866893314399</v>
+        <v>0.6797528448351348</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2540,19 +2540,19 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1759864654632164</v>
+        <v>0.2902819124704686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4444124394333742</v>
+        <v>0.7330747785653298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1811554690580251</v>
+        <v>0.2988918435997886</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5599792504214758</v>
+        <v>0.9237452989236157</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5048816526545156</v>
+        <v>0.8330138126455378</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3246914378612174</v>
+        <v>0.5359890155337559</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -2579,31 +2579,31 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4099092086227126</v>
+        <v>0.6760938823091616</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1633471291089351</v>
+        <v>0.2696343854598731</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2001869710139282</v>
+        <v>0.3303525553632672</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5136281560535088</v>
+        <v>0.847522142631137</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1765415686675529</v>
+        <v>0.2913181306882093</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4994344061495897</v>
+        <v>0.8243327958842348</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2239986218662505</v>
+        <v>0.3695432441351485</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2611,28 +2611,28 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1601360447814072</v>
+        <v>0.2645936743651803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2973700685322357</v>
+        <v>0.4911384550606928</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2286703048050046</v>
+        <v>0.3779582057766538</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9661846616216607</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6081846502407249</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.922060743489315</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6191727252539994</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4176441523982928</v>
+        <v>0.6902702723732383</v>
       </c>
       <c r="M8" t="n">
-        <v>0.287713289084182</v>
+        <v>0.4755242693596739</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -2656,25 +2656,25 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1982206773763395</v>
+        <v>0.32764358878698</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1855843377712761</v>
+        <v>0.3065837697353576</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7219063438318534</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1809297589626188</v>
+        <v>0.2989365898723167</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4104073098962367</v>
+        <v>0.6780850335648746</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1925770151056101</v>
+        <v>0.3181356140528737</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2682,28 +2682,28 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147686996023732</v>
+        <v>0.2441440950385311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2391286133221617</v>
+        <v>0.3952520597681888</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219817920912799</v>
+        <v>0.3633158814339113</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9283428581339485</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5355025292831447</v>
+        <v>0.8853741888031063</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8450187123975555</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5030658697833797</v>
+        <v>0.8315099496816618</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -2712,40 +2712,40 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3616326434070679</v>
+        <v>0.5977371139332892</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9795173114412012</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3046433019035759</v>
+        <v>0.50346913360612</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1581387512359209</v>
+        <v>0.2614092675219953</v>
       </c>
       <c r="R9" t="n">
-        <v>0.157536888661172</v>
+        <v>0.2603775585021333</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5690125419349351</v>
+        <v>0.9406451201293006</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1806247082784355</v>
+        <v>0.2986215971444416</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3896181905552401</v>
+        <v>0.6440850115766021</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2504167039028739</v>
+        <v>0.3545824311239487</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2753,28 +2753,28 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1588250821341916</v>
+        <v>0.2629934575996683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2970807856151825</v>
+        <v>0.4919507212627851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2867321285335142</v>
+        <v>0.4748138697330384</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1884227073246895</v>
+        <v>0.3121801568773846</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2608795788684479</v>
+        <v>0.4322062241126479</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4193441693441693</v>
+        <v>0.6945756945756948</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -2783,37 +2783,37 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2826890765224732</v>
+        <v>0.4681623086540019</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8474980901451491</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3311211950210565</v>
+        <v>0.5483708992660926</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1395691029349182</v>
+        <v>0.2312053826396625</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2084275835326052</v>
+        <v>0.3452250156186045</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3111624034008735</v>
+        <v>0.5153170788716346</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.222403567652062</v>
+        <v>0.368478356272021</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4533853839620773</v>
+        <v>0.7510658813662864</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -2827,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9204800841581792</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2830008379765073</v>
+        <v>0.4697747086127145</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2895,19 +2895,19 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1732505147416929</v>
+        <v>0.2876558084298551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5040151574883105</v>
+        <v>0.8371979672145248</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1797172913677768</v>
+        <v>0.2984354926102499</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5569445801200222</v>
+        <v>0.9248527443282476</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2916,49 +2916,49 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5306531095844579</v>
+        <v>0.8813193502863942</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8997922736016857</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3221176237049253</v>
+        <v>0.5347503760202174</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8436616394911234</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4419744809235476</v>
+        <v>0.7339353432923379</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1839922389997243</v>
+        <v>0.3055195926870719</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2039782036377563</v>
+        <v>0.3384645441585246</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6041988886979434</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1589053688013532</v>
+        <v>0.2637497598336354</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4872852964145599</v>
+        <v>0.8092540306742513</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1836573679783059</v>
+        <v>0.3048764558046702</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2966,28 +2966,28 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1658558858892546</v>
+        <v>0.2761368178737267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3139747952582178</v>
+        <v>0.5227927153060842</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3034398034398035</v>
+        <v>0.5052030640265934</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2108444319499596</v>
+        <v>0.3509555770862304</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3020567771786358</v>
+        <v>0.5029723710485881</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4535301690990314</v>
+        <v>0.7549835394146773</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2996,37 +2996,37 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2422995718489224</v>
+        <v>0.403390116162963</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8691026654689512</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3856704768239421</v>
+        <v>0.6424472711838559</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1465836375228972</v>
+        <v>0.2441081967419185</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2235093958108501</v>
+        <v>0.3720184986518058</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4176000827639993</v>
+        <v>0.6955359167903485</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2333569137269035</v>
+        <v>0.3886871949564653</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4862600831205897</v>
+        <v>0.8096612627472421</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>

--- a/progress_summary.xlsx
+++ b/progress_summary.xlsx
@@ -2185,13 +2185,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2523147546544727</v>
+        <v>0.3221780100701573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5073081406858324</v>
+        <v>0.6476695334667752</v>
       </c>
       <c r="D2" t="n">
-        <v>0.482281894290295</v>
+        <v>0.6155371139979443</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9439693969396941</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7663120906141879</v>
+        <v>0.978455455085418</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -2224,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7099132604151027</v>
+        <v>0.9063574379290299</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.246884175044416</v>
+        <v>0.3151183262035244</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3413202000746713</v>
+        <v>0.4355857946612784</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3765909193251923</v>
+        <v>0.4808270938320022</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8027190450692823</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3188182086408932</v>
+        <v>0.4069870567438786</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2256,19 +2256,19 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3088676685281505</v>
+        <v>0.3965140788491167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7808529216279969</v>
+        <v>0.9997654183156167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3185314583050829</v>
+        <v>0.4091542785936048</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9839053008670371</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8972554100688952</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5903550174430536</v>
+        <v>0.7577262466652985</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -2295,31 +2295,31 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7393741953264149</v>
+        <v>0.9490520790914438</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2866520805174552</v>
+        <v>0.3676537937395314</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3570393715789516</v>
+        <v>0.4579094441776187</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9231851427779248</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3123779095510544</v>
+        <v>0.400847361978104</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8805670494331954</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3895640129421821</v>
+        <v>0.4996158465983487</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2330,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1597461678757371</v>
+        <v>0.2046045830898088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7068780058148146</v>
+        <v>0.9052520402516118</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2391160185892353</v>
+        <v>0.3066879684867193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4701813082604658</v>
+        <v>0.6027348434983728</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4397550762039247</v>
+        <v>0.5641646783853533</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9960675737536746</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8485584489408581</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6907997254391349</v>
+        <v>0.8862044637172406</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -2437,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6286128047984488</v>
+        <v>0.8062396543891499</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2380946102210262</v>
+        <v>0.3053399383188932</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3154206321687997</v>
+        <v>0.4045489043903862</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -2455,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3496987776766169</v>
+        <v>0.4482982391569648</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7296047140891206</v>
+        <v>0.9349165516502748</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2864137319935364</v>
+        <v>0.3673679525999355</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2469,13 +2469,13 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6018791358669114</v>
+        <v>0.7736281129502097</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6278621058069778</v>
+        <v>0.806573486049266</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -2514,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6372232546360532</v>
+        <v>0.8194908634348348</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7195324399029743</v>
+        <v>0.924220934636678</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -2526,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5529364057353706</v>
+        <v>0.7102659666674922</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6797528448351348</v>
+        <v>0.8739135566054617</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2540,19 +2540,19 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2902819124704686</v>
+        <v>0.3732836328104945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7330747785653298</v>
+        <v>0.9427304617980187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2988918435997886</v>
+        <v>0.3844992324276259</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9237452989236157</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8330138126455378</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5359890155337559</v>
+        <v>0.6896121298344661</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -2579,31 +2579,31 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6760938823091616</v>
+        <v>0.8694669851263145</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2696343854598731</v>
+        <v>0.346748457529368</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3303525553632672</v>
+        <v>0.4249509850293348</v>
       </c>
       <c r="S7" t="n">
-        <v>0.847522142631137</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2913181306882093</v>
+        <v>0.3746395336946518</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8243327958842348</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3695432441351485</v>
+        <v>0.4757052039077564</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2611,13 +2611,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2645936743651803</v>
+        <v>0.3406340552010652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4911384550606928</v>
+        <v>0.6319287087463088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3779582057766538</v>
+        <v>0.4861972580859843</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6902702723732383</v>
+        <v>0.8886852865540761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4755242693596739</v>
+        <v>0.6120105222391519</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -2656,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.32764358878698</v>
+        <v>0.4218365032635074</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3065837697353576</v>
+        <v>0.3945558469225336</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -2668,13 +2668,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2989365898723167</v>
+        <v>0.3848287046558752</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6780850335648746</v>
+        <v>0.8722469824116617</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3181356140528737</v>
+        <v>0.4093326957462595</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2682,19 +2682,19 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2441440950385311</v>
+        <v>0.3143135297295545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3952520597681888</v>
+        <v>0.5090350509705348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3633158814339113</v>
+        <v>0.4682429871406517</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8853741888031063</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8315099496816618</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5977371139332892</v>
+        <v>0.7698103899482853</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -2721,31 +2721,31 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.50346913360612</v>
+        <v>0.6488525173456681</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2614092675219953</v>
+        <v>0.3365990709717848</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2603775585021333</v>
+        <v>0.3353548113532566</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9406451201293006</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2986215971444416</v>
+        <v>0.3845449396806319</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6440850115766021</v>
+        <v>0.829110421854295</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3545824311239487</v>
+        <v>0.430544293595673</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2753,28 +2753,28 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2629934575996683</v>
+        <v>0.3390505391850559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4919507212627851</v>
+        <v>0.6339722092463865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4748138697330384</v>
+        <v>0.6120899885334066</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3121801568773846</v>
+        <v>0.4018799809277298</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4322062241126479</v>
+        <v>0.5571638059139239</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6945756945756948</v>
+        <v>0.894994644994645</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4681623086540019</v>
+        <v>0.6037999782342683</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -2792,28 +2792,28 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5483708992660926</v>
+        <v>0.7068582505918986</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2312053826396625</v>
+        <v>0.2980228202204385</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3452250156186045</v>
+        <v>0.4450078239905682</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5153170788716346</v>
+        <v>0.6641783413436957</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.368478356272021</v>
+        <v>0.475004284024559</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7510658813662864</v>
+        <v>0.9684992943790856</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4697747086127145</v>
+        <v>0.6059625971123891</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2895,19 +2895,19 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2876558084298551</v>
+        <v>0.3713039000460743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8371979672145248</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2984354926102499</v>
+        <v>0.3852484435008707</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9248527443282476</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8813193502863942</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5347503760202174</v>
+        <v>0.6905792620078334</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -2934,16 +2934,16 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7339353432923379</v>
+        <v>0.947118104297178</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3055195926870719</v>
+        <v>0.3943750196293285</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3384645441585246</v>
+        <v>0.4372619528906101</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -2952,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2637497598336354</v>
+        <v>0.3406029965227678</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8092540306742513</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3048764558046702</v>
+        <v>0.3935266220455025</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2966,28 +2966,28 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2761368178737267</v>
+        <v>0.3565170816947873</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5227927153060842</v>
+        <v>0.674918664223477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5052030640265934</v>
+        <v>0.6525509466685938</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3509555770862304</v>
+        <v>0.4534159308028656</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5029723710485881</v>
+        <v>0.6492889904297134</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7549835394146773</v>
+        <v>0.9756461103766493</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.403390116162963</v>
+        <v>0.520672805538144</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -3005,28 +3005,28 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6424472711838559</v>
+        <v>0.8298621765485156</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2441081967419185</v>
+        <v>0.3152351309091747</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3720184986518058</v>
+        <v>0.4806304285989753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6955359167903485</v>
+        <v>0.898665828415905</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3886871949564653</v>
+        <v>0.5022512602163168</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8096612627472421</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
